--- a/Data/RawData/YPE_Data/YPE_72_GlacierPointRoadCloser/Digita Data_YPE72/YPE_Understory_Plot_72.xlsx
+++ b/Data/RawData/YPE_Data/YPE_72_GlacierPointRoadCloser/Digita Data_YPE72/YPE_Understory_Plot_72.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="YencUIorjj9VMVBAeLmu4bpjB/zqRETgnDlyjiLGXCY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9zbEhmdU0yJr3rE6HkgUQ3NNmoJLhIcrEDdZSMeRYUI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -26,13 +26,17 @@
         <t xml:space="preserve">======
 ID#AAABCjSAOfs
 Emily Sorenson    (2023-12-15 21:48:05)
-hieracium aebiflorum</t>
+hieracium aebiflorum
+------
+ID#AAABhLaGsEg
+Tazlina Dentinger    (2025-03-25 15:24:11)
+Recoded to HIAL in R</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mib4DLffgSIaDiokXes+v6ixWG7fA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mji4ZGyEh3D9s0LBNCyqVOwiBmBCQ=="/>
     </ext>
   </extLst>
 </comments>
